--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999993709485524</v>
+        <v>0.9999999989342561</v>
       </c>
       <c r="E2">
-        <v>0.9999993709485524</v>
+        <v>0.9999999989342561</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.999995697521614</v>
+        <v>0.9999983366317112</v>
       </c>
       <c r="E3">
-        <v>0.999995697521614</v>
+        <v>0.9999983366317112</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999704823738255</v>
+        <v>0.9999999915616385</v>
       </c>
       <c r="E4">
-        <v>0.9999704823738255</v>
+        <v>0.9999999915616385</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0001630757453162106</v>
+        <v>0.003767655426160727</v>
       </c>
       <c r="E5">
-        <v>0.0001630757453162106</v>
+        <v>0.003767655426160727</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.2038044072161315</v>
+        <v>0.003015807603838609</v>
       </c>
       <c r="E6">
-        <v>0.2038044072161315</v>
+        <v>0.003015807603838609</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.99999997213368</v>
+        <v>0.9999980177652275</v>
       </c>
       <c r="E7">
-        <v>2.786632002926837E-08</v>
+        <v>1.982234772546221E-06</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9999999999999922</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7.771561172376096E-15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999999993463</v>
+        <v>0.9999999999996998</v>
       </c>
       <c r="E9">
-        <v>6.536993168992922E-13</v>
+        <v>3.002043058586423E-13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9035979400794344</v>
+        <v>0.8956182203807842</v>
       </c>
       <c r="E10">
-        <v>0.09640205992056561</v>
+        <v>0.1043817796192158</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999973119</v>
       </c>
       <c r="E11">
-        <v>2.220446049250313E-16</v>
+        <v>2.688071987222429E-12</v>
       </c>
       <c r="F11">
-        <v>3.7395339012146</v>
+        <v>5.267377853393555</v>
       </c>
       <c r="G11">
         <v>0.7</v>
